--- a/data/Ferntransport.xlsx
+++ b/data/Ferntransport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD234BC-3F84-8940-A020-D62AB98ED432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D1719-3DAD-9446-A796-BB1B597D8498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35540" yWindow="-6100" windowWidth="28800" windowHeight="17500" xr2:uid="{E54C3A13-B9AE-5440-94E7-9B66758EAF36}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
   <si>
     <t>Fahrten pro Jahr</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>max Fahrten pro Jahr</t>
-  </si>
-  <si>
-    <t>Puntas Arenas</t>
   </si>
 </sst>
 </file>
@@ -169,14 +166,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,7 +493,7 @@
   <dimension ref="A1:O8761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,7 +516,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>12</v>
@@ -533,14 +530,14 @@
       <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -561,16 +558,16 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -594,7 +591,7 @@
       <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <f>ROUNDDOWN(8760/(K7*2),0)</f>
         <v>9</v>
       </c>
@@ -910,7 +907,7 @@
       <c r="J12" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <f>K11/K3</f>
         <v>513.33333333333337</v>
       </c>
@@ -920,7 +917,7 @@
       <c r="M12" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="2">
         <f>N11/N3</f>
         <v>609.33333333333337</v>
       </c>
@@ -970,7 +967,7 @@
       <c r="J14" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <f>K12+K7</f>
         <v>973.33333333333337</v>
       </c>
@@ -980,7 +977,7 @@
       <c r="M14" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="2">
         <f>N12+N7</f>
         <v>973.33333333333337</v>
       </c>
@@ -1027,14 +1024,14 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1055,16 +1052,16 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5" t="s">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1088,7 +1085,7 @@
       <c r="J18" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <f>ROUNDDOWN(8760/(K22*2),0)</f>
         <v>9</v>
       </c>
@@ -1404,7 +1401,7 @@
       <c r="J27" t="s">
         <v>10</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <f>K26/K18</f>
         <v>497.33333333333331</v>
       </c>
@@ -1414,7 +1411,7 @@
       <c r="M27" t="s">
         <v>10</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="2">
         <f>N26/N18</f>
         <v>609.33333333333337</v>
       </c>
@@ -1464,7 +1461,7 @@
       <c r="J29" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <f>K27+K22</f>
         <v>973.33333333333326</v>
       </c>
@@ -1474,7 +1471,7 @@
       <c r="M29" t="s">
         <v>11</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="2">
         <f>N27+N22</f>
         <v>973.33333333333337</v>
       </c>
